--- a/medicine/Pharmacie/Déméclocycline/Déméclocycline.xlsx
+++ b/medicine/Pharmacie/Déméclocycline/Déméclocycline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9clocycline</t>
+          <t>Déméclocycline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La déméclocycline vendue sous le nom commercial Ledermycine puis Alkanotrem est une tétracycline. C'est à l'origine un antibiotique dérivé de Streptomyces aureofaciens.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9clocycline</t>
+          <t>Déméclocycline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Indication AMM</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traitement du syndrome de sécrétion inappropriée d’hormone antidiurétique (SIADH) plus particulièrement d’origine paranéoplasique avec :
 - hyponatrémie chronique &lt; 125 mEq/l associée à une natriurèse inappropriée,
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9clocycline</t>
+          <t>Déméclocycline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,16 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle bloque l’effet de l’hormone antidiurétique sur les cellules du tube rénal distal. La déméclocycline se fixerait sur son récepteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle bloque l’effet de l’hormone antidiurétique sur les cellules du tube rénal distal. La déméclocycline se fixerait sur son récepteur.
 .
 Place dans la stratégie thérapeutique
 Absence de cause retrouvée ou cause non curable
 Echec de la restriction hydrique ou restriction hydrique impossible
-Possibilité d'utiliser des diurétiques de l'anse (utilisés hors AMM recommandés par la commission de transparence)[3]</t>
+Possibilité d'utiliser des diurétiques de l'anse (utilisés hors AMM recommandés par la commission de transparence)</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9clocycline</t>
+          <t>Déméclocycline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,12 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des réactions cutanées à la lumière du soleil ont été rapportées comme pour d'autres tétracyclines.
-Les tétracyclines peuvent bloquer l'absorption des nutriments en fixant des cations comme le calcium, le fer (donné par voie orale) et le magnésium ce qui les rend insolubles et inabsorbables dans le tube digestif. La déméclocycline ne devrait pas être prise avec la nourriture (particulièrement le lait et d'autres produits laitiers) ou des antiacides[4].
+Les tétracyclines peuvent bloquer l'absorption des nutriments en fixant des cations comme le calcium, le fer (donné par voie orale) et le magnésium ce qui les rend insolubles et inabsorbables dans le tube digestif. La déméclocycline ne devrait pas être prise avec la nourriture (particulièrement le lait et d'autres produits laitiers) ou des antiacides.
 </t>
         </is>
       </c>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9clocycline</t>
+          <t>Déméclocycline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres tétracyclines, la déméclocycline est contre-indiquée chez les enfants, les femmes enceintes et les femmes qui allaitent. Toutes les molécules qui appartiennent à la classe des tétracyclines interfèrent avec le développement de l'os et peuvent décolorer les dents.  
 </t>
